--- a/KEVIN OSCAR.xlsx
+++ b/KEVIN OSCAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="270" windowWidth="14805" windowHeight="7845" firstSheet="19" activeTab="23"/>
+    <workbookView minimized="1" xWindow="240" yWindow="270" windowWidth="14805" windowHeight="7845" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY " sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="151">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>FOR THE MONTH OF DECEMBER  2021</t>
+  </si>
+  <si>
+    <t>PAID ON 10/12</t>
+  </si>
+  <si>
+    <t>tinah naserian</t>
   </si>
 </sst>
 </file>
@@ -16704,7 +16710,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:XFD5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17826,11 +17832,11 @@
         <v>16150</v>
       </c>
       <c r="J5" s="3">
-        <v>10112</v>
+        <v>10000</v>
       </c>
       <c r="K5" s="3">
         <f>I5-J5</f>
-        <v>6038</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -17859,10 +17865,12 @@
         <f t="shared" ref="I6:I17" si="0">B6+C6+D6+E6+F6+G6+H6</f>
         <v>16300</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>16300</v>
+      </c>
       <c r="K6" s="3">
         <f>I6-J6</f>
-        <v>16300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -17891,10 +17899,13 @@
         <f>B7+C7+D7+E7+F7+G7+H7</f>
         <v>17650</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <f>17650</f>
+        <v>17650</v>
+      </c>
       <c r="K7" s="3">
         <f>I7-J7</f>
-        <v>17650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -17958,10 +17969,12 @@
         <f>B9+C9+D9+E9+F9+G9+H9</f>
         <v>11950</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>11500</v>
+      </c>
       <c r="K9" s="3">
         <f t="shared" si="1"/>
-        <v>11950</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -17991,11 +18004,12 @@
         <v>20100</v>
       </c>
       <c r="J10" s="3">
-        <v>18550</v>
+        <f>18550+350+1200</f>
+        <v>20100</v>
       </c>
       <c r="K10" s="3">
         <f>I10-J10</f>
-        <v>1550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -18025,11 +18039,12 @@
         <v>16000</v>
       </c>
       <c r="J11" s="3">
-        <v>6000</v>
+        <f>6000+10000</f>
+        <v>16000</v>
       </c>
       <c r="K11" s="3">
         <f>I11-J11</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -18092,42 +18107,48 @@
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3">
+        <v>16000</v>
+      </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>16000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B14" s="3">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="C14" s="3">
         <f>'NOVEMBER 21'!L14:L28</f>
         <v>0</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
+      </c>
       <c r="F14" s="3">
         <v>1000</v>
       </c>
       <c r="G14" s="3">
         <v>250</v>
       </c>
-      <c r="H14" s="3">
-        <v>450</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>10700</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>22250</v>
+      </c>
+      <c r="J14" s="3">
+        <v>22250</v>
+      </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>10700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -18154,10 +18175,12 @@
         <f>B15+C15+D15+E15+F15+G15+H15</f>
         <v>20500</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3">
+        <v>16500</v>
+      </c>
       <c r="K15" s="3">
         <f t="shared" si="1"/>
-        <v>20500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -18203,12 +18226,16 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>600</v>
+      </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="3"/>
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>600</v>
+      </c>
       <c r="K17" s="3">
         <f>I17-J17</f>
         <v>0</v>
@@ -18262,7 +18289,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <f>SUM(B5:B19)</f>
-        <v>167000</v>
+        <v>168000</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C5:C19)</f>
@@ -18270,11 +18297,11 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" ref="D20:F20" si="2">SUM(D5:D19)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
@@ -18286,19 +18313,19 @@
       </c>
       <c r="H20" s="2">
         <f>SUM(H5:H19)</f>
-        <v>10950</v>
+        <v>11100</v>
       </c>
       <c r="I20" s="3">
         <f>SUM(I5:I19)</f>
-        <v>221150</v>
+        <v>233300</v>
       </c>
       <c r="J20" s="2">
         <f>SUM(J5:J19)</f>
-        <v>57162</v>
+        <v>169400</v>
       </c>
       <c r="K20" s="3">
         <f>SUM(K5:K19)</f>
-        <v>163988</v>
+        <v>63900</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -18319,7 +18346,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="29">
         <f>K20-17500</f>
-        <v>146488</v>
+        <v>46400</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -18386,7 +18413,7 @@
       </c>
       <c r="B25" s="14">
         <f>B20</f>
-        <v>167000</v>
+        <v>168000</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -18396,7 +18423,7 @@
       </c>
       <c r="G25" s="14">
         <f>J20</f>
-        <v>57162</v>
+        <v>169400</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="13"/>
@@ -18430,7 +18457,7 @@
       </c>
       <c r="B27" s="14">
         <f>D20</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -18447,7 +18474,7 @@
       </c>
       <c r="B28" s="3">
         <f>E20</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -18481,7 +18508,7 @@
       </c>
       <c r="B30" s="3">
         <f>H20</f>
-        <v>10950</v>
+        <v>11100</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -18501,7 +18528,7 @@
       </c>
       <c r="C31" s="14">
         <f>B31*B25</f>
-        <v>8350</v>
+        <v>8400</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="13"/>
@@ -18513,7 +18540,7 @@
       </c>
       <c r="H31" s="14">
         <f>G31*B25</f>
-        <v>8350</v>
+        <v>8400</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="3"/>
@@ -18574,14 +18601,22 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="30"/>
+      <c r="C35" s="30">
+        <v>163200</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="30"/>
+      <c r="H35" s="30">
+        <v>163200</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
@@ -18589,29 +18624,29 @@
       <c r="A36" s="18"/>
       <c r="B36" s="30">
         <f>B25+B26+B27+B28+B29+B30-C31</f>
-        <v>181600</v>
+        <v>193700</v>
       </c>
       <c r="C36" s="31">
         <f>SUM(C33:C35)</f>
-        <v>9000</v>
+        <v>172200</v>
       </c>
       <c r="D36" s="31">
         <f>B36-C36</f>
-        <v>172600</v>
+        <v>21500</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="18"/>
       <c r="G36" s="30">
         <f>G25+G26-H31</f>
-        <v>37113</v>
+        <v>149301</v>
       </c>
       <c r="H36" s="21">
         <f>SUM(H33:H35)</f>
-        <v>11500</v>
+        <v>174700</v>
       </c>
       <c r="I36" s="30">
         <f>G36-H36</f>
-        <v>25613</v>
+        <v>-25399</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="15"/>
@@ -18625,7 +18660,7 @@
       </c>
       <c r="H37">
         <f>H36-H33</f>
-        <v>9000</v>
+        <v>172200</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
